--- a/biology/Médecine/Inclacumab/Inclacumab.xlsx
+++ b/biology/Médecine/Inclacumab/Inclacumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inclacumab est un anticorps monoclonal dirigé contre la sélectine P, en cours de test dans les infarctus du myocarde.
 </t>
@@ -511,9 +523,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sélectine P est une protéine d'adhésion cellulaire située sur les membranes des cellules endothéliales et des plaquettes, favorisant l'union de ces dernières[1], ce qui pourrait favoriser la formation de l'athérome.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sélectine P est une protéine d'adhésion cellulaire située sur les membranes des cellules endothéliales et des plaquettes, favorisant l'union de ces dernières, ce qui pourrait favoriser la formation de l'athérome.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Évaluation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donné en une injection unique, avant un geste d'angioplastie motivée par un infarctus du myocarde sans onde Q, il réduit le niveau des enzymes myocardiques ce qui pourrait correspondre à un certain degré de protection cardiaque[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donné en une injection unique, avant un geste d'angioplastie motivée par un infarctus du myocarde sans onde Q, il réduit le niveau des enzymes myocardiques ce qui pourrait correspondre à un certain degré de protection cardiaque.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Tolérance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La molécule semble bien être tolérée, sans majoration du risque de saignement[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La molécule semble bien être tolérée, sans majoration du risque de saignement.
 </t>
         </is>
       </c>
